--- a/workers.xlsx
+++ b/workers.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>Фамилия</t>
   </si>
@@ -60,9 +60,6 @@
     <t>1wd124</t>
   </si>
   <si>
-    <t>key1</t>
-  </si>
-  <si>
     <t>Лопатин</t>
   </si>
   <si>
@@ -78,9 +75,6 @@
     <t>jfia81</t>
   </si>
   <si>
-    <t>key2</t>
-  </si>
-  <si>
     <t>Иванов</t>
   </si>
   <si>
@@ -94,9 +88,6 @@
   </si>
   <si>
     <t>d1kkwkd</t>
-  </si>
-  <si>
-    <t>key3</t>
   </si>
 </sst>
 </file>
@@ -474,60 +465,60 @@
       <c r="G2" s="1">
         <v>32893</v>
       </c>
-      <c r="H2" t="s">
-        <v>13</v>
+      <c r="H2">
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" t="s">
         <v>14</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>15</v>
-      </c>
-      <c r="C3" t="s">
-        <v>16</v>
       </c>
       <c r="D3">
         <v>11</v>
       </c>
       <c r="E3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" t="s">
         <v>17</v>
-      </c>
-      <c r="F3" t="s">
-        <v>18</v>
       </c>
       <c r="G3" s="1">
         <v>36219</v>
       </c>
-      <c r="H3" t="s">
-        <v>19</v>
+      <c r="H3">
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" t="s">
         <v>20</v>
-      </c>
-      <c r="B4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C4" t="s">
-        <v>22</v>
       </c>
       <c r="D4">
         <v>10</v>
       </c>
       <c r="E4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G4" s="1">
         <v>44915</v>
       </c>
-      <c r="H4" t="s">
-        <v>25</v>
+      <c r="H4">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
